--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/incorrect_predictions_42.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AI Spot-Check</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/42/incorrect_predictions_42.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>AI Spot-Check</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -521,42 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
